--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_14-38.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_14-38.xlsx
@@ -92,6 +92,12 @@
     <t>GABAVERONA 300MG CAPS</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
@@ -101,15 +107,24 @@
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>NOVOCOBAL 1 MG 30 SUBLINGUAL TABS.</t>
   </si>
   <si>
@@ -123,6 +138,9 @@
   </si>
   <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
     <t>SULBIN 750MG VIAL</t>
@@ -1128,7 +1146,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1148,13 +1166,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1166,7 +1184,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1174,13 +1192,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1200,13 +1218,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1226,13 +1244,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1244,7 +1262,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1252,17 +1270,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1270,7 +1288,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1278,17 +1296,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1304,13 +1322,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1330,13 +1348,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1348,7 +1366,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1356,13 +1374,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>149.5</v>
+        <v>32</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1374,7 +1392,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1382,17 +1400,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1408,13 +1426,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1440,11 +1458,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1460,13 +1478,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1478,7 +1496,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1486,13 +1504,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>26</v>
+        <v>149.5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1504,7 +1522,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1512,17 +1530,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1530,7 +1548,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1538,17 +1556,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>66.640000000000001</v>
+        <v>19</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1556,7 +1574,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1564,17 +1582,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>-375</v>
+        <v>18</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1582,7 +1600,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1590,17 +1608,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1608,7 +1626,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1616,13 +1634,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1634,7 +1652,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1642,13 +1660,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1668,17 +1686,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>188.09999999999999</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1694,13 +1712,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>50</v>
+        <v>-375</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1720,17 +1738,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1738,7 +1756,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1746,13 +1764,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1764,7 +1782,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1772,13 +1790,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1798,51 +1816,181 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>25</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="K44" s="10">
-        <v>1618.24</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="11">
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
+        <v>60</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
+        <v>8</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>50</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c t="s" r="N44" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
         <v>61</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c t="s" r="F45" s="12">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
         <v>62</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c t="s" r="I45" s="14">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>15</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c t="s" r="N45" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
         <v>63</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>41</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>25</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
+        <v>64</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
+        <v>14</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>50</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c t="s" r="N47" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
+        <v>65</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
+        <v>66</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>25</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c t="s" r="N48" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="K49" s="10">
+        <v>1959.24</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="11">
+        <v>67</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c t="s" r="F50" s="12">
+        <v>68</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c t="s" r="I50" s="14">
+        <v>69</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="146">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1970,10 +2118,25 @@
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:N50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
